--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -1,36 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\avega-list\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C744FCA4-8162-4254-817E-0260F426125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$11</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>DEPARTMENT</t>
   </si>
   <si>
-    <t>Full Name</t>
-  </si>
-  <si>
     <t>BOOKS</t>
   </si>
   <si>
@@ -40,68 +28,50 @@
     <t>INPUT TAX</t>
   </si>
   <si>
+    <t>EMD DEPARTMENT</t>
+  </si>
+  <si>
+    <t>ENGINEERING DEPARTMENT - CAVITE</t>
+  </si>
+  <si>
+    <t>OFFICE OF THE PRESIDENT</t>
+  </si>
+  <si>
     <t>ACCOUNTING DEPARTMENT</t>
   </si>
   <si>
     <t>ADMIN DEPARTMENT</t>
   </si>
   <si>
-    <t>ENGINEERING DEPARTMENT - CAVITE</t>
-  </si>
-  <si>
     <t>HR DEPARTMENT</t>
   </si>
   <si>
+    <t>PERMITS &amp; LICENSES DEPARTMENT</t>
+  </si>
+  <si>
     <t>TREASURY DEPARTMENT</t>
   </si>
   <si>
-    <t>DE JOSE, GLEDA GICANGAO</t>
-  </si>
-  <si>
-    <t>ABRIAM, AGNES BURGOS</t>
-  </si>
-  <si>
-    <t>COLUMNA, ALMA ZAPATA</t>
-  </si>
-  <si>
-    <t>MAKIRAMDAM, MILYN PANGANIBAN</t>
-  </si>
-  <si>
-    <t>SEBESON, PAULA MAE DUSONG</t>
-  </si>
-  <si>
-    <t>ONG, JAMY APPLES BANTAY</t>
-  </si>
-  <si>
-    <t>FLORESTA, GLEN</t>
-  </si>
-  <si>
-    <t>BALOLOY, SARAH HIZO</t>
-  </si>
-  <si>
-    <t>GADIN, VIRGINIA LIWANAG</t>
-  </si>
-  <si>
-    <t>MARTEJA, ELIZABETH SARNE</t>
+    <t>ENGINEERING DEPARTMENT - ANTIPOLO</t>
+  </si>
+  <si>
+    <t>ELISTON PLACE</t>
   </si>
   <si>
     <t>GENERAL COMMON EXPENSE</t>
   </si>
   <si>
-    <t>ELISTON PLACE</t>
-  </si>
-  <si>
     <t>MCC</t>
+  </si>
+  <si>
+    <t>QH2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +81,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,34 +120,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,27 +212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,24 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,23 +421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,197 +438,179 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>555</v>
+      </c>
+      <c r="D2">
+        <v>66.59999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>12772.55</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1532.7059999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>555</v>
-      </c>
-      <c r="E3" s="3">
-        <v>66.599999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>1665</v>
+      </c>
+      <c r="D3">
+        <v>199.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>12388.69</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1486.6428000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>555</v>
+      </c>
+      <c r="D4">
+        <v>66.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4462.2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>535.46399999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>11018.27</v>
+      </c>
+      <c r="D5">
+        <v>1322.1924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
-        <v>666</v>
-      </c>
-      <c r="E6" s="3">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>22021.29</v>
+      </c>
+      <c r="D6">
+        <v>2642.5548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>9817.950000000001</v>
+      </c>
+      <c r="D7">
+        <v>1178.154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>555</v>
+      </c>
+      <c r="D8">
+        <v>66.59999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>15228.09</v>
+      </c>
+      <c r="D9">
+        <v>1827.3708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>2775</v>
+      </c>
+      <c r="D10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>6312.57</v>
+      </c>
+      <c r="D11">
+        <v>757.5083999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
-        <v>555</v>
-      </c>
-      <c r="E7" s="3">
-        <v>66.599999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C12">
+        <v>1110</v>
+      </c>
+      <c r="D12">
+        <v>133.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1471.85</v>
-      </c>
-      <c r="E8" s="3">
-        <v>176.62200000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3">
-        <v>24034.51</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2884.1412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9240.75</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1108.8900000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3">
-        <v>555</v>
-      </c>
-      <c r="E11" s="3">
-        <v>66.599999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="3">
-        <f>SUBTOTAL(109,D2:D11)</f>
-        <v>33830.259999999995</v>
+      <c r="C13">
+        <v>1221</v>
+      </c>
+      <c r="D13">
+        <v>146.52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TREASURY DEPARTMENT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -31,21 +31,21 @@
     <t>EMD DEPARTMENT</t>
   </si>
   <si>
-    <t>ENGINEERING DEPARTMENT - CAVITE</t>
+    <t>ACCOUNTING DEPARTMENT</t>
+  </si>
+  <si>
+    <t>ADMIN DEPARTMENT</t>
+  </si>
+  <si>
+    <t>HR DEPARTMENT</t>
+  </si>
+  <si>
+    <t>LEGAL DEPARTMENT</t>
   </si>
   <si>
     <t>OFFICE OF THE PRESIDENT</t>
   </si>
   <si>
-    <t>ACCOUNTING DEPARTMENT</t>
-  </si>
-  <si>
-    <t>ADMIN DEPARTMENT</t>
-  </si>
-  <si>
-    <t>HR DEPARTMENT</t>
-  </si>
-  <si>
     <t>PERMITS &amp; LICENSES DEPARTMENT</t>
   </si>
   <si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>QH2</t>
+  </si>
+  <si>
+    <t>WP</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,10 +453,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>555</v>
+        <v>17127.26</v>
       </c>
       <c r="D2">
-        <v>66.59999999999999</v>
+        <v>2055.2712</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +464,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>1665</v>
+        <v>17809.53</v>
       </c>
       <c r="D3">
-        <v>199.8</v>
+        <v>2137.1436</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +478,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>555</v>
+        <v>16376.93</v>
       </c>
       <c r="D4">
-        <v>66.59999999999999</v>
+        <v>1965.2316</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -492,10 +495,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>11018.27</v>
+        <v>35910.72</v>
       </c>
       <c r="D5">
-        <v>1322.1924</v>
+        <v>4309.2864</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -506,29 +509,29 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>22021.29</v>
+        <v>2731.71</v>
       </c>
       <c r="D6">
-        <v>2642.5548</v>
+        <v>327.8052</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
-        <v>9817.950000000001</v>
+        <v>28016.96</v>
       </c>
       <c r="D7">
-        <v>1178.154</v>
+        <v>3362.0352</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -542,72 +545,58 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>15228.09</v>
+        <v>721.5</v>
       </c>
       <c r="D9">
-        <v>1827.3708</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>2775</v>
+        <v>34406.67</v>
       </c>
       <c r="D10">
-        <v>333</v>
+        <v>4128.8004</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>6312.57</v>
+        <v>2118.27</v>
       </c>
       <c r="D11">
-        <v>757.5083999999999</v>
+        <v>254.1924</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>1110</v>
+        <v>2892.66</v>
       </c>
       <c r="D12">
-        <v>133.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>1221</v>
-      </c>
-      <c r="D13">
-        <v>146.52</v>
+        <v>347.1192</v>
       </c>
     </row>
   </sheetData>
